--- a/excel/Data Simpanan Pokok.xlsx
+++ b/excel/Data Simpanan Pokok.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -35,19 +35,22 @@
     <t>Simpanan Pokok</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>T.II/WH/0001</t>
+  </si>
+  <si>
+    <t>Yusuf Husain</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
     <t>T.II/WH/0002</t>
-  </si>
-  <si>
-    <t>Yusuf Husain</t>
-  </si>
-  <si>
-    <t>2023-05</t>
-  </si>
-  <si>
-    <t>T.II/WH/0001</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -452,26 +455,6 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
         <v>50000</v>
       </c>
     </row>

--- a/excel/Data Simpanan Pokok.xlsx
+++ b/excel/Data Simpanan Pokok.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -35,22 +35,10 @@
     <t>Simpanan Pokok</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>T.II/WH/0001</t>
-  </si>
-  <si>
-    <t>Yusuf Husain</t>
-  </si>
-  <si>
-    <t>2023-05</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>T.II/WH/0002</t>
+    <t>Januari(2019)</t>
+  </si>
+  <si>
+    <t>Maret(2019)</t>
   </si>
 </sst>
 </file>
@@ -422,17 +410,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2">
         <v>50000</v>
@@ -442,17 +430,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>50000</v>

--- a/excel/Data Simpanan Pokok.xlsx
+++ b/excel/Data Simpanan Pokok.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -35,10 +35,37 @@
     <t>Simpanan Pokok</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>T.II/WH/0001</t>
+  </si>
+  <si>
+    <t>Tina Kurniana</t>
+  </si>
+  <si>
     <t>Januari(2019)</t>
   </si>
   <si>
-    <t>Maret(2019)</t>
+    <t>003</t>
+  </si>
+  <si>
+    <t>T.II/WH/0006</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>T.II/WH/0002</t>
+  </si>
+  <si>
+    <t>udin</t>
+  </si>
+  <si>
+    <t>Februari(2020)</t>
   </si>
 </sst>
 </file>
@@ -378,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,17 +437,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>50000</v>
@@ -430,19 +457,39 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
         <v>50000</v>
       </c>
     </row>
